--- a/stock_historical_data/1d/UNITDSPR.NS.xlsx
+++ b/stock_historical_data/1d/UNITDSPR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,2757 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1450.050048828125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1457.849975585938</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1432</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1448.300048828125</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1448.300048828125</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1221654</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>28</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>35</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1430.199951171875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1448.849975585938</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1448.849975585938</v>
+      </c>
+      <c r="G63" t="n">
+        <v>409294</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>29</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>35</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1484.349975585938</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1432.650024414062</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1474.349975585938</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1474.349975585938</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2319735</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>30</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>35</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1495.949951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1474.599975585938</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1484.849975585938</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1484.849975585938</v>
+      </c>
+      <c r="G65" t="n">
+        <v>817883</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>36</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1503.150024414062</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1478.900024414062</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1478.900024414062</v>
+      </c>
+      <c r="G66" t="n">
+        <v>702946</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>36</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1507</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1465.300048828125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1499.349975585938</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1499.349975585938</v>
+      </c>
+      <c r="G67" t="n">
+        <v>590555</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>36</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1481.75</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1485</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1485</v>
+      </c>
+      <c r="G68" t="n">
+        <v>689394</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>36</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1482.050048828125</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1489.900024414062</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1453.449951171875</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1461.699951171875</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1461.699951171875</v>
+      </c>
+      <c r="G69" t="n">
+        <v>712351</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>36</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1463.650024414062</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1506.900024414062</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1463.650024414062</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1504.050048828125</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1504.050048828125</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1791287</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>9</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>37</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1518.550048828125</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1519.75</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1500.099975585938</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1508.199951171875</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1508.199951171875</v>
+      </c>
+      <c r="G71" t="n">
+        <v>591925</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>37</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1512.050048828125</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1531.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1505.849975585938</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1523.300048828125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1523.300048828125</v>
+      </c>
+      <c r="G72" t="n">
+        <v>622732</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>11</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>37</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1528.349975585938</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1536.949951171875</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1519.699951171875</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1529.199951171875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1529.199951171875</v>
+      </c>
+      <c r="G73" t="n">
+        <v>475277</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>37</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1529.199951171875</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1523.349975585938</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1523.349975585938</v>
+      </c>
+      <c r="G74" t="n">
+        <v>551554</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>13</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>37</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1533.900024414062</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1552.900024414062</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1525.400024414062</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1547.25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1547.25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>516123</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>16</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>38</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1547</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1559.25</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1540.800048828125</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1224149</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>38</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1560.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1561.949951171875</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1525.050048828125</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1537.75</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1537.75</v>
+      </c>
+      <c r="G77" t="n">
+        <v>320652</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>18</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>38</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1564</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1522.300048828125</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1529.75</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1529.75</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1528204</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>19</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>38</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1582</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1532.150024414062</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1574.150024414062</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1574.150024414062</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1821157</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>20</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>38</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1561.150024414062</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1628.25</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1628.25</v>
+      </c>
+      <c r="G80" t="n">
+        <v>670632</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>23</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1635.199951171875</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1644.550048828125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1612.300048828125</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1635.550048828125</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1635.550048828125</v>
+      </c>
+      <c r="G81" t="n">
+        <v>964946</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>24</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1635.550048828125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1638.449951171875</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1607.650024414062</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1626.599975585938</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1626.599975585938</v>
+      </c>
+      <c r="G82" t="n">
+        <v>898849</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>25</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>39</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1647.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1607</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1644.599975585938</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1644.599975585938</v>
+      </c>
+      <c r="G83" t="n">
+        <v>774246</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>26</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>39</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1611</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1611</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1596.599975585938</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1596.599975585938</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2273207</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>27</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>39</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1596.099975585938</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1610.75</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1575.099975585938</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="G85" t="n">
+        <v>668068</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>40</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1614.199951171875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1585.550048828125</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1610.949951171875</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1610.949951171875</v>
+      </c>
+      <c r="G86" t="n">
+        <v>473000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>40</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1595.099975585938</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1543.550048828125</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1564.099975585938</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1564.099975585938</v>
+      </c>
+      <c r="G87" t="n">
+        <v>658824</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>40</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1565</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1571.900024414062</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1527.25</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1531.349975585938</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1531.349975585938</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1019377</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>40</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1531.349975585938</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1497.050048828125</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1506.300048828125</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1506.300048828125</v>
+      </c>
+      <c r="G89" t="n">
+        <v>755578</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>41</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1495.099975585938</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1531</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1491.75</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1519</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1519</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1607560</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>41</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1538</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1513.75</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1523.449951171875</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1523.449951171875</v>
+      </c>
+      <c r="G91" t="n">
+        <v>336186</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>41</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1546.949951171875</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1502.349975585938</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1507.800048828125</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1507.800048828125</v>
+      </c>
+      <c r="G92" t="n">
+        <v>369677</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>41</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1515.349975585938</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1491.099975585938</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1519.550048828125</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1519.550048828125</v>
+      </c>
+      <c r="G93" t="n">
+        <v>316816</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>41</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1546.199951171875</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1519.900024414062</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1540.449951171875</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1540.449951171875</v>
+      </c>
+      <c r="G94" t="n">
+        <v>426793</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>14</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>42</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1539.599975585938</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1552.300048828125</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1521.349975585938</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1547.800048828125</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1547.800048828125</v>
+      </c>
+      <c r="G95" t="n">
+        <v>441089</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>15</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>42</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1561</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1537.050048828125</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1553.300048828125</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1553.300048828125</v>
+      </c>
+      <c r="G96" t="n">
+        <v>546976</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
+        <v>16</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>42</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1552.900024414062</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1553</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1520.800048828125</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1528.150024414062</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1528.150024414062</v>
+      </c>
+      <c r="G97" t="n">
+        <v>537173</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>17</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>42</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1526.949951171875</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1519.25</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1519.25</v>
+      </c>
+      <c r="G98" t="n">
+        <v>709462</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>18</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>42</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1517.050048828125</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1532.849975585938</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1490.900024414062</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1495.199951171875</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1495.199951171875</v>
+      </c>
+      <c r="G99" t="n">
+        <v>272480</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>21</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>43</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1493.699951171875</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1497.199951171875</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1468.75</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1473</v>
+      </c>
+      <c r="G100" t="n">
+        <v>741250</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>22</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>43</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1484.849975585938</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1466.349975585938</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1466.349975585938</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1172365</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>23</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>43</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1493</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1459.699951171875</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1459.699951171875</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1227944</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J102" t="n">
+        <v>24</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>43</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1502.900024414062</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1454.949951171875</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1480.199951171875</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1480.199951171875</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1101554</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="n">
+        <v>25</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>43</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1480.199951171875</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1460.699951171875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1466.800048828125</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1466.800048828125</v>
+      </c>
+      <c r="G104" t="n">
+        <v>322416</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10</v>
+      </c>
+      <c r="J104" t="n">
+        <v>28</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>44</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1469.150024414062</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1473.400024414062</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1429.199951171875</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1448.25</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1448.25</v>
+      </c>
+      <c r="G105" t="n">
+        <v>569482</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10</v>
+      </c>
+      <c r="J105" t="n">
+        <v>29</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>44</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1459.900024414062</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1426.599975585938</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1449.099975585938</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1449.099975585938</v>
+      </c>
+      <c r="G106" t="n">
+        <v>522184</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J106" t="n">
+        <v>31</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>44</v>
+      </c>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1467.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1474.949951171875</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1450.050048828125</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1453.150024414062</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1453.150024414062</v>
+      </c>
+      <c r="G107" t="n">
+        <v>54659</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>44</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1418.400024414062</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1436.050048828125</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1436.050048828125</v>
+      </c>
+      <c r="G108" t="n">
+        <v>444771</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>45</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1449.900024414062</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1460.449951171875</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1444.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1456.349975585938</v>
+      </c>
+      <c r="G109" t="n">
+        <v>240099</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>11</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>45</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1453.800048828125</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1465.949951171875</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1424.25</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1438.949951171875</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1438.949951171875</v>
+      </c>
+      <c r="G110" t="n">
+        <v>283200</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11</v>
+      </c>
+      <c r="J110" t="n">
+        <v>7</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>45</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1441.099975585938</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1455.949951171875</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1432.949951171875</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1448.650024414062</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1448.650024414062</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1499108</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>45</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1495.400024414062</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1447</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1475.849975585938</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1475.849975585938</v>
+      </c>
+      <c r="G112" t="n">
+        <v>650600</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11</v>
+      </c>
+      <c r="J112" t="n">
+        <v>11</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>46</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1481.550048828125</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1439.099975585938</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1446.800048828125</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1446.800048828125</v>
+      </c>
+      <c r="G113" t="n">
+        <v>681448</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11</v>
+      </c>
+      <c r="J113" t="n">
+        <v>12</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>46</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1433.099975585938</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1443.849975585938</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1423.449951171875</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1427.699951171875</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1427.699951171875</v>
+      </c>
+      <c r="G114" t="n">
+        <v>296683</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I114" t="n">
+        <v>11</v>
+      </c>
+      <c r="J114" t="n">
+        <v>13</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>46</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1427.699951171875</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1454.550048828125</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1425.199951171875</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1442.349975585938</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1442.349975585938</v>
+      </c>
+      <c r="G115" t="n">
+        <v>548233</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11</v>
+      </c>
+      <c r="J115" t="n">
+        <v>14</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>46</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1481.849975585938</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1440.25</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1470.800048828125</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1470.800048828125</v>
+      </c>
+      <c r="G116" t="n">
+        <v>934866</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I116" t="n">
+        <v>11</v>
+      </c>
+      <c r="J116" t="n">
+        <v>18</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>47</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1479</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1505.949951171875</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1475.25</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1487.400024414062</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1487.400024414062</v>
+      </c>
+      <c r="G117" t="n">
+        <v>701147</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11</v>
+      </c>
+      <c r="J117" t="n">
+        <v>19</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>47</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/UNITDSPR.NS.xlsx
+++ b/stock_historical_data/1d/UNITDSPR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6149,7 +6149,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6203,7 +6205,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6257,7 +6261,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6311,7 +6317,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6365,7 +6373,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6419,7 +6429,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6473,7 +6485,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6527,7 +6541,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6581,7 +6597,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6635,7 +6653,933 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1504.949951171875</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1481.550048828125</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1493.050048828125</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1493.050048828125</v>
+      </c>
+      <c r="G118" t="n">
+        <v>545772</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I118" t="n">
+        <v>11</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>47</v>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1489.699951171875</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1500.150024414062</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1500.150024414062</v>
+      </c>
+      <c r="G119" t="n">
+        <v>621662</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>22</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>47</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1518.900024414062</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1543.699951171875</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1476.150024414062</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1486.099975585938</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1486.099975585938</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3600031</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J120" t="n">
+        <v>25</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>48</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1486.099975585938</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1528.75</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1466.900024414062</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1511.150024414062</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1511.150024414062</v>
+      </c>
+      <c r="G121" t="n">
+        <v>658663</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I121" t="n">
+        <v>11</v>
+      </c>
+      <c r="J121" t="n">
+        <v>26</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>48</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1518.699951171875</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1526.949951171875</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1500.050048828125</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1515.75</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1515.75</v>
+      </c>
+      <c r="G122" t="n">
+        <v>547190</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I122" t="n">
+        <v>11</v>
+      </c>
+      <c r="J122" t="n">
+        <v>27</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>48</v>
+      </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1521.400024414062</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1522.75</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1495.449951171875</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1502.75</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1502.75</v>
+      </c>
+      <c r="G123" t="n">
+        <v>566858</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
+        <v>11</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>48</v>
+      </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1541.949951171875</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1501.150024414062</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1529.099975585938</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1529.099975585938</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1224425</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11</v>
+      </c>
+      <c r="J124" t="n">
+        <v>29</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>48</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1552.849975585938</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1532.199951171875</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1532.199951171875</v>
+      </c>
+      <c r="G125" t="n">
+        <v>554366</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>12</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>49</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1532.400024414062</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1545</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1513.099975585938</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1542.949951171875</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1542.949951171875</v>
+      </c>
+      <c r="G126" t="n">
+        <v>522548</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>12</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>49</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1549</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1520.650024414062</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1526.050048828125</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1526.050048828125</v>
+      </c>
+      <c r="G127" t="n">
+        <v>618463</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>12</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>49</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1526.199951171875</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1515.150024414062</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1530.099975585938</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1530.099975585938</v>
+      </c>
+      <c r="G128" t="n">
+        <v>423566</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>49</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1537.75</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1537.75</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1513.050048828125</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1516.599975585938</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1516.599975585938</v>
+      </c>
+      <c r="G129" t="n">
+        <v>323615</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>49</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1512.699951171875</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1522.650024414062</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1492.25</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1506.25</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1506.25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>516426</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>12</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>50</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1517</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1526.150024414062</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1500.050048828125</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1513.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>522996</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12</v>
+      </c>
+      <c r="J131" t="n">
+        <v>10</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>50</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1522.199951171875</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1506.75</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1516.800048828125</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1516.800048828125</v>
+      </c>
+      <c r="G132" t="n">
+        <v>324261</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>50</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1510.800048828125</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1532.75</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1510.800048828125</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1525.949951171875</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1525.949951171875</v>
+      </c>
+      <c r="G133" t="n">
+        <v>540314</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12</v>
+      </c>
+      <c r="J133" t="n">
+        <v>12</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>50</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1528.150024414062</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1482.849975585938</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1512.050048828125</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1512.050048828125</v>
+      </c>
+      <c r="G134" t="n">
+        <v>462501</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12</v>
+      </c>
+      <c r="J134" t="n">
+        <v>13</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>50</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1512.050048828125</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1544.300048828125</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1467.349975585938</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1519.199951171875</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1519.199951171875</v>
+      </c>
+      <c r="G135" t="n">
+        <v>805772</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I135" t="n">
+        <v>12</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>51</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/UNITDSPR.NS.xlsx
+++ b/stock_historical_data/1d/UNITDSPR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7093,7 +7093,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7147,7 +7149,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7201,7 +7205,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7255,7 +7261,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7309,7 +7317,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7363,7 +7373,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7417,7 +7429,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7471,7 +7485,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7525,7 +7541,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7579,7 +7597,529 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1567.699951171875</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1528.099975585938</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1563.300048828125</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>2444937</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>12</v>
+      </c>
+      <c r="J136" t="n">
+        <v>17</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>51</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1595.849975585938</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1539.699951171875</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1579.599975585938</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>2242721</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I137" t="n">
+        <v>12</v>
+      </c>
+      <c r="J137" t="n">
+        <v>18</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>51</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1586</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1554.400024414062</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1572.349975585938</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>584413</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12</v>
+      </c>
+      <c r="J138" t="n">
+        <v>19</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>51</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1578.599975585938</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1588.949951171875</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1541.300048828125</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1544.800048828125</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>484886</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I139" t="n">
+        <v>12</v>
+      </c>
+      <c r="J139" t="n">
+        <v>20</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>51</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1558.349975585938</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1530.599975585938</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1545.050048828125</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>375618</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12</v>
+      </c>
+      <c r="J140" t="n">
+        <v>23</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>52</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1554.599975585938</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1569.75</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1541.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1564.75</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>388993</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I141" t="n">
+        <v>12</v>
+      </c>
+      <c r="J141" t="n">
+        <v>24</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>52</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1579.599975585938</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1579.599975585938</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1553.050048828125</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1566.949951171875</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>544734</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I142" t="n">
+        <v>12</v>
+      </c>
+      <c r="J142" t="n">
+        <v>26</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>52</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1560.050048828125</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1589.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1579.400024414062</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>356482</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I143" t="n">
+        <v>12</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>52</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1584.150024414062</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1665.349975585938</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1567.199951171875</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1619.550048828125</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>3987698</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I144" t="n">
+        <v>12</v>
+      </c>
+      <c r="J144" t="n">
+        <v>30</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1615.050048828125</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1633.349975585938</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1601.550048828125</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1625.449951171875</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>816402</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I145" t="n">
+        <v>12</v>
+      </c>
+      <c r="J145" t="n">
+        <v>31</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/UNITDSPR.NS.xlsx
+++ b/stock_historical_data/1d/UNITDSPR.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7651,7 +7651,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7703,7 +7705,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7755,7 +7759,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7807,7 +7813,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7859,7 +7867,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7911,7 +7921,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7963,7 +7975,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8015,7 +8029,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8067,7 +8083,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8119,7 +8137,1449 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1629.150024414062</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1664.199951171875</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1611.800048828125</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1659.599975585938</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>433570</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1691.900024414062</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1652.099975585938</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1688.550048828125</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>615262</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1666.449951171875</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>647193</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1665</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1698.800048828125</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1633.650024414062</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1641.150024414062</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>309219</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1641.449951171875</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1657.949951171875</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1622.300048828125</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1626.300048828125</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>542151</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>7</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1630.900024414062</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1562.550048828125</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1575.800048828125</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>1413532</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1561</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1598.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1561</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1574.449951171875</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>777640</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1574.449951171875</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1531.199951171875</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1539.150024414062</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>402378</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>10</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1520.599975585938</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1537</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1478.599975585938</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1483.550048828125</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>906542</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>13</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1462.25</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1468</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1404</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1407.25</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>2008577</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>14</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1404.650024414062</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1420.300048828125</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1410.900024414062</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>1287420</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>15</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1441.75</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1407.900024414062</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1414.150024414062</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>489271</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>16</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1414.150024414062</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1438.199951171875</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1411.25</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1427.550048828125</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>696620</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>17</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1416.099975585938</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1477.349975585938</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1412.800048828125</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1457.849975585938</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>1610101</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>20</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1463.050048828125</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1473.849975585938</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1433.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>562153</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1497.949951171875</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1441.699951171875</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1458.699951171875</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>913499</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>22</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1468.699951171875</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1509</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1500.650024414062</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>1235078</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>4</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1461.349975585938</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1469.75</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>1968647</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>24</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1464.199951171875</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1386.900024414062</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1390.849975585938</v>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>805934</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>27</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>5</v>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1362.050048828125</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1397.050048828125</v>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>1371996</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>28</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1397.949951171875</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1381.050048828125</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1427.949951171875</v>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="n">
+        <v>766197</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>29</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>5</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1428.900024414062</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1434.949951171875</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1412.050048828125</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1426.900024414062</v>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>749914</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>30</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1417.199951171875</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1424</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>664221</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>31</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1385.550048828125</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1498.099975585938</v>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>1426531</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1498</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1473.050048828125</v>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>802852</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>6</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1490.449951171875</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1508.900024414062</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1465.800048828125</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1482.449951171875</v>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>478244</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>6</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1492.099975585938</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1438.349975585938</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>819735</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1451.900024414062</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1458.800048828125</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1410.25</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1415.050048828125</v>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>431647</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>6</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>6</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1416.900024414062</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1430.900024414062</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1427.5</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>621350</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>7</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>6</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1427.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1446.25</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1410.550048828125</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1419.5</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>670728</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>10</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>7</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
